--- a/funds/Interval/var_data_TBMF_20240221.xlsx
+++ b/funds/Interval/var_data_TBMF_20240221.xlsx
@@ -7084,7 +7084,7 @@
         <v>19</v>
       </c>
       <c r="F283">
-        <v>-9.033357241752978E-06</v>
+        <v>-9.03335724175211E-06</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -7324,7 +7324,7 @@
         <v>31</v>
       </c>
       <c r="F295">
-        <v>-0.0002043286476517891</v>
+        <v>-0.0002043286476517883</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7344,7 +7344,7 @@
         <v>32</v>
       </c>
       <c r="F296">
-        <v>8.990096276905238E-06</v>
+        <v>8.99009627690437E-06</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7624,7 +7624,7 @@
         <v>46</v>
       </c>
       <c r="F310">
-        <v>-3.602046406890949E-05</v>
+        <v>-3.602046406890862E-05</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -7844,7 +7844,7 @@
         <v>57</v>
       </c>
       <c r="F321">
-        <v>-1.102696447602934E-06</v>
+        <v>-1.102696447603801E-06</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7964,7 +7964,7 @@
         <v>63</v>
       </c>
       <c r="F327">
-        <v>0.0004024264458446078</v>
+        <v>0.0004024264458446069</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -8004,7 +8004,7 @@
         <v>65</v>
       </c>
       <c r="F329">
-        <v>1.083664621857362E-06</v>
+        <v>1.083664621856495E-06</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -8124,7 +8124,7 @@
         <v>71</v>
       </c>
       <c r="F335">
-        <v>-0.0004287650999864594</v>
+        <v>-0.0004287650999864603</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -8144,7 +8144,7 @@
         <v>72</v>
       </c>
       <c r="F336">
-        <v>2.215129196016588E-07</v>
+        <v>2.215129196025262E-07</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -8184,7 +8184,7 @@
         <v>74</v>
       </c>
       <c r="F338">
-        <v>1.31987044419855E-05</v>
+        <v>1.319870444198463E-05</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -8224,7 +8224,7 @@
         <v>76</v>
       </c>
       <c r="F340">
-        <v>-3.780509274430022E-06</v>
+        <v>-3.780509274429154E-06</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -8404,7 +8404,7 @@
         <v>85</v>
       </c>
       <c r="F349">
-        <v>1.902510863643729E-06</v>
+        <v>1.902510863642862E-06</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -8424,7 +8424,7 @@
         <v>86</v>
       </c>
       <c r="F350">
-        <v>-0.0002632142373595265</v>
+        <v>-0.0002632142373595282</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -8524,7 +8524,7 @@
         <v>91</v>
       </c>
       <c r="F355">
-        <v>-0.0001886649487385702</v>
+        <v>-0.0001886649487385693</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -8564,7 +8564,7 @@
         <v>93</v>
       </c>
       <c r="F357">
-        <v>-4.486818577911778E-05</v>
+        <v>-4.486818577911691E-05</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -8704,7 +8704,7 @@
         <v>100</v>
       </c>
       <c r="F364">
-        <v>6.776181660671753E-06</v>
+        <v>6.776181660670885E-06</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -8764,7 +8764,7 @@
         <v>103</v>
       </c>
       <c r="F367">
-        <v>7.170608386103828E-05</v>
+        <v>7.170608386103741E-05</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -8844,7 +8844,7 @@
         <v>107</v>
       </c>
       <c r="F371">
-        <v>3.19636387519865E-06</v>
+        <v>3.196363875197783E-06</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -8864,7 +8864,7 @@
         <v>108</v>
       </c>
       <c r="F372">
-        <v>-2.897723118853827E-06</v>
+        <v>-2.897723118854695E-06</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -8964,7 +8964,7 @@
         <v>113</v>
       </c>
       <c r="F377">
-        <v>0.0004542539648352559</v>
+        <v>0.000454253964835255</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -9024,7 +9024,7 @@
         <v>116</v>
       </c>
       <c r="F380">
-        <v>-4.224448991554594E-06</v>
+        <v>-4.224448991555461E-06</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -9104,7 +9104,7 @@
         <v>120</v>
       </c>
       <c r="F384">
-        <v>6.837841838311723E-07</v>
+        <v>6.837841838303049E-07</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -9124,7 +9124,7 @@
         <v>121</v>
       </c>
       <c r="F385">
-        <v>0.0003082582810902896</v>
+        <v>0.0003082582810902887</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -9184,7 +9184,7 @@
         <v>124</v>
       </c>
       <c r="F388">
-        <v>0.0005998434594990075</v>
+        <v>0.0005998434594990066</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -9204,7 +9204,7 @@
         <v>125</v>
       </c>
       <c r="F389">
-        <v>2.786486680889447E-06</v>
+        <v>2.786486680890314E-06</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -9224,7 +9224,7 @@
         <v>126</v>
       </c>
       <c r="F390">
-        <v>-3.568494687010773E-05</v>
+        <v>-3.568494687010686E-05</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -9384,7 +9384,7 @@
         <v>134</v>
       </c>
       <c r="F398">
-        <v>0.0003134040212465113</v>
+        <v>0.0003134040212465104</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -9424,7 +9424,7 @@
         <v>136</v>
       </c>
       <c r="F400">
-        <v>2.672280429130008E-06</v>
+        <v>2.672280429130876E-06</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -9484,7 +9484,7 @@
         <v>139</v>
       </c>
       <c r="F403">
-        <v>-6.735181117030042E-05</v>
+        <v>-6.735181117030128E-05</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -9504,7 +9504,7 @@
         <v>140</v>
       </c>
       <c r="F404">
-        <v>-1.017211882445562E-05</v>
+        <v>-1.017211882445648E-05</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -9644,7 +9644,7 @@
         <v>147</v>
       </c>
       <c r="F411">
-        <v>0.0001032534068217258</v>
+        <v>0.0001032534068217249</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -9684,7 +9684,7 @@
         <v>149</v>
       </c>
       <c r="F413">
-        <v>4.900175730841727E-06</v>
+        <v>4.90017573084086E-06</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -15624,7 +15624,7 @@
         <v>25</v>
       </c>
       <c r="F710">
-        <v>-2.237998792379084E-06</v>
+        <v>-2.237998792377349E-06</v>
       </c>
     </row>
     <row r="711" spans="1:6">
@@ -15764,7 +15764,7 @@
         <v>32</v>
       </c>
       <c r="F717">
-        <v>1.271486253101237E-05</v>
+        <v>1.271486253101063E-05</v>
       </c>
     </row>
     <row r="718" spans="1:6">
@@ -16044,7 +16044,7 @@
         <v>46</v>
       </c>
       <c r="F731">
-        <v>-5.094442093084295E-05</v>
+        <v>-5.094442093084121E-05</v>
       </c>
     </row>
     <row r="732" spans="1:6">
@@ -16264,7 +16264,7 @@
         <v>57</v>
       </c>
       <c r="F742">
-        <v>-1.559564359808821E-06</v>
+        <v>-1.559564359810556E-06</v>
       </c>
     </row>
     <row r="743" spans="1:6">
@@ -16384,7 +16384,7 @@
         <v>63</v>
       </c>
       <c r="F748">
-        <v>0.0005691593037666018</v>
+        <v>0.0005691593037666009</v>
       </c>
     </row>
     <row r="749" spans="1:6">
@@ -16504,7 +16504,7 @@
         <v>69</v>
       </c>
       <c r="F754">
-        <v>8.739885394900421E-07</v>
+        <v>8.739885394917768E-07</v>
       </c>
     </row>
     <row r="755" spans="1:6">
@@ -16564,7 +16564,7 @@
         <v>72</v>
       </c>
       <c r="F757">
-        <v>3.132898953265434E-07</v>
+        <v>3.132898953282781E-07</v>
       </c>
     </row>
     <row r="758" spans="1:6">
@@ -16604,7 +16604,7 @@
         <v>74</v>
       </c>
       <c r="F759">
-        <v>1.866717634586672E-05</v>
+        <v>1.866717634586498E-05</v>
       </c>
     </row>
     <row r="760" spans="1:6">
@@ -16644,7 +16644,7 @@
         <v>76</v>
       </c>
       <c r="F761">
-        <v>-5.346845488750016E-06</v>
+        <v>-5.346845488748281E-06</v>
       </c>
     </row>
     <row r="762" spans="1:6">
@@ -16824,7 +16824,7 @@
         <v>85</v>
       </c>
       <c r="F770">
-        <v>2.690756956311505E-06</v>
+        <v>2.69075695630977E-06</v>
       </c>
     </row>
     <row r="771" spans="1:6">
@@ -16844,7 +16844,7 @@
         <v>86</v>
       </c>
       <c r="F771">
-        <v>-0.0003722688546538844</v>
+        <v>-0.0003722688546538861</v>
       </c>
     </row>
     <row r="772" spans="1:6">
@@ -16984,7 +16984,7 @@
         <v>93</v>
       </c>
       <c r="F778">
-        <v>-6.345792042994694E-05</v>
+        <v>-6.345792042994521E-05</v>
       </c>
     </row>
     <row r="779" spans="1:6">
@@ -17164,7 +17164,7 @@
         <v>102</v>
       </c>
       <c r="F787">
-        <v>5.464751982521554E-05</v>
+        <v>5.464751982521381E-05</v>
       </c>
     </row>
     <row r="788" spans="1:6">
@@ -17184,7 +17184,7 @@
         <v>103</v>
       </c>
       <c r="F788">
-        <v>0.0001014152652928212</v>
+        <v>0.0001014152652928195</v>
       </c>
     </row>
     <row r="789" spans="1:6">
@@ -17384,7 +17384,7 @@
         <v>113</v>
       </c>
       <c r="F798">
-        <v>0.0006424599402661685</v>
+        <v>0.0006424599402661667</v>
       </c>
     </row>
     <row r="799" spans="1:6">
@@ -17544,7 +17544,7 @@
         <v>121</v>
       </c>
       <c r="F806">
-        <v>0.0004359754942978725</v>
+        <v>0.0004359754942978716</v>
       </c>
     </row>
     <row r="807" spans="1:6">
@@ -17604,7 +17604,7 @@
         <v>124</v>
       </c>
       <c r="F809">
-        <v>0.0008483699053646069</v>
+        <v>0.0008483699053646061</v>
       </c>
     </row>
     <row r="810" spans="1:6">
@@ -17644,7 +17644,7 @@
         <v>126</v>
       </c>
       <c r="F811">
-        <v>-5.046989263568849E-05</v>
+        <v>-5.046989263568676E-05</v>
       </c>
     </row>
     <row r="812" spans="1:6">
@@ -17764,7 +17764,7 @@
         <v>132</v>
       </c>
       <c r="F817">
-        <v>-5.363843942104984E-06</v>
+        <v>-5.363843942106719E-06</v>
       </c>
     </row>
     <row r="818" spans="1:6">
@@ -17804,7 +17804,7 @@
         <v>134</v>
       </c>
       <c r="F819">
-        <v>0.0004432532115426525</v>
+        <v>0.0004432532115426517</v>
       </c>
     </row>
     <row r="820" spans="1:6">
@@ -17904,7 +17904,7 @@
         <v>139</v>
       </c>
       <c r="F824">
-        <v>-9.52569353951209E-05</v>
+        <v>-9.525693539512263E-05</v>
       </c>
     </row>
     <row r="825" spans="1:6">
@@ -17924,7 +17924,7 @@
         <v>140</v>
       </c>
       <c r="F825">
-        <v>-1.43866192884208E-05</v>
+        <v>-1.438661928842254E-05</v>
       </c>
     </row>
     <row r="826" spans="1:6">
@@ -18064,7 +18064,7 @@
         <v>147</v>
       </c>
       <c r="F832">
-        <v>0.0001460332384837244</v>
+        <v>0.0001460332384837226</v>
       </c>
     </row>
     <row r="833" spans="1:6">
@@ -18264,7 +18264,7 @@
         <v>157</v>
       </c>
       <c r="F842">
-        <v>3.052600330622109E-05</v>
+        <v>3.052600330621935E-05</v>
       </c>
     </row>
     <row r="843" spans="1:6">
@@ -23924,7 +23924,7 @@
         <v>159</v>
       </c>
       <c r="F1125">
-        <v>1.083664621857362E-06</v>
+        <v>1.083664621856495E-06</v>
       </c>
     </row>
     <row r="1126" spans="1:6">
@@ -24064,7 +24064,7 @@
         <v>166</v>
       </c>
       <c r="F1132">
-        <v>-0.0002632142373595265</v>
+        <v>-0.0002632142373595282</v>
       </c>
     </row>
     <row r="1133" spans="1:6">
@@ -24284,7 +24284,7 @@
         <v>177</v>
       </c>
       <c r="F1143">
-        <v>-3.602046406890949E-05</v>
+        <v>-3.602046406890862E-05</v>
       </c>
     </row>
     <row r="1144" spans="1:6">
@@ -24304,7 +24304,7 @@
         <v>178</v>
       </c>
       <c r="F1144">
-        <v>-6.735181117030042E-05</v>
+        <v>-6.735181117030128E-05</v>
       </c>
     </row>
     <row r="1145" spans="1:6">
@@ -24404,7 +24404,7 @@
         <v>183</v>
       </c>
       <c r="F1149">
-        <v>-0.0002043286476517891</v>
+        <v>-0.0002043286476517883</v>
       </c>
     </row>
     <row r="1150" spans="1:6">
@@ -24524,7 +24524,7 @@
         <v>189</v>
       </c>
       <c r="F1155">
-        <v>0.0003134040212465113</v>
+        <v>0.0003134040212465104</v>
       </c>
     </row>
     <row r="1156" spans="1:6">
@@ -24604,7 +24604,7 @@
         <v>193</v>
       </c>
       <c r="F1159">
-        <v>0.0005998434594990075</v>
+        <v>0.0005998434594990066</v>
       </c>
     </row>
     <row r="1160" spans="1:6">
@@ -24644,7 +24644,7 @@
         <v>195</v>
       </c>
       <c r="F1161">
-        <v>2.786486680889447E-06</v>
+        <v>2.786486680890314E-06</v>
       </c>
     </row>
     <row r="1162" spans="1:6">
@@ -24744,7 +24744,7 @@
         <v>200</v>
       </c>
       <c r="F1166">
-        <v>2.672280429130008E-06</v>
+        <v>2.672280429130876E-06</v>
       </c>
     </row>
     <row r="1167" spans="1:6">
@@ -24764,7 +24764,7 @@
         <v>201</v>
       </c>
       <c r="F1167">
-        <v>0.0004542539648352559</v>
+        <v>0.000454253964835255</v>
       </c>
     </row>
     <row r="1168" spans="1:6">
@@ -24924,7 +24924,7 @@
         <v>209</v>
       </c>
       <c r="F1175">
-        <v>-1.017211882445562E-05</v>
+        <v>-1.017211882445648E-05</v>
       </c>
     </row>
     <row r="1176" spans="1:6">
@@ -24964,7 +24964,7 @@
         <v>211</v>
       </c>
       <c r="F1177">
-        <v>-4.224448991554594E-06</v>
+        <v>-4.224448991555461E-06</v>
       </c>
     </row>
     <row r="1178" spans="1:6">
@@ -25104,7 +25104,7 @@
         <v>218</v>
       </c>
       <c r="F1184">
-        <v>-1.102696447602934E-06</v>
+        <v>-1.102696447603801E-06</v>
       </c>
     </row>
     <row r="1185" spans="1:6">
@@ -25144,7 +25144,7 @@
         <v>220</v>
       </c>
       <c r="F1186">
-        <v>0.0001032534068217258</v>
+        <v>0.0001032534068217249</v>
       </c>
     </row>
     <row r="1187" spans="1:6">
@@ -25384,7 +25384,7 @@
         <v>232</v>
       </c>
       <c r="F1198">
-        <v>8.990096276905238E-06</v>
+        <v>8.99009627690437E-06</v>
       </c>
     </row>
     <row r="1199" spans="1:6">
@@ -25484,7 +25484,7 @@
         <v>237</v>
       </c>
       <c r="F1203">
-        <v>-2.897723118853827E-06</v>
+        <v>-2.897723118854695E-06</v>
       </c>
     </row>
     <row r="1204" spans="1:6">
@@ -25784,7 +25784,7 @@
         <v>252</v>
       </c>
       <c r="F1218">
-        <v>-3.780509274430022E-06</v>
+        <v>-3.780509274429154E-06</v>
       </c>
     </row>
     <row r="1219" spans="1:6">
@@ -25824,7 +25824,7 @@
         <v>254</v>
       </c>
       <c r="F1220">
-        <v>6.776181660671753E-06</v>
+        <v>6.776181660670885E-06</v>
       </c>
     </row>
     <row r="1221" spans="1:6">
@@ -25844,7 +25844,7 @@
         <v>255</v>
       </c>
       <c r="F1221">
-        <v>6.837841838311723E-07</v>
+        <v>6.837841838303049E-07</v>
       </c>
     </row>
     <row r="1222" spans="1:6">
@@ -25964,7 +25964,7 @@
         <v>261</v>
       </c>
       <c r="F1227">
-        <v>-0.0004287650999864594</v>
+        <v>-0.0004287650999864603</v>
       </c>
     </row>
     <row r="1228" spans="1:6">
@@ -26004,7 +26004,7 @@
         <v>263</v>
       </c>
       <c r="F1229">
-        <v>1.31987044419855E-05</v>
+        <v>1.319870444198463E-05</v>
       </c>
     </row>
     <row r="1230" spans="1:6">
@@ -26024,7 +26024,7 @@
         <v>264</v>
       </c>
       <c r="F1230">
-        <v>-9.033357241752978E-06</v>
+        <v>-9.03335724175211E-06</v>
       </c>
     </row>
     <row r="1231" spans="1:6">
@@ -26044,7 +26044,7 @@
         <v>265</v>
       </c>
       <c r="F1231">
-        <v>-3.568494687010773E-05</v>
+        <v>-3.568494687010686E-05</v>
       </c>
     </row>
     <row r="1232" spans="1:6">
@@ -26144,7 +26144,7 @@
         <v>270</v>
       </c>
       <c r="F1236">
-        <v>0.0004024264458446078</v>
+        <v>0.0004024264458446069</v>
       </c>
     </row>
     <row r="1237" spans="1:6">
@@ -26244,7 +26244,7 @@
         <v>275</v>
       </c>
       <c r="F1241">
-        <v>2.215129196016588E-07</v>
+        <v>2.215129196025262E-07</v>
       </c>
     </row>
     <row r="1242" spans="1:6">
@@ -26344,7 +26344,7 @@
         <v>280</v>
       </c>
       <c r="F1246">
-        <v>1.902510863643729E-06</v>
+        <v>1.902510863642862E-06</v>
       </c>
     </row>
     <row r="1247" spans="1:6">
@@ -26424,7 +26424,7 @@
         <v>284</v>
       </c>
       <c r="F1250">
-        <v>0.0003082582810902896</v>
+        <v>0.0003082582810902887</v>
       </c>
     </row>
     <row r="1251" spans="1:6">
@@ -26464,7 +26464,7 @@
         <v>286</v>
       </c>
       <c r="F1252">
-        <v>-4.486818577911778E-05</v>
+        <v>-4.486818577911691E-05</v>
       </c>
     </row>
     <row r="1253" spans="1:6">
@@ -26584,7 +26584,7 @@
         <v>292</v>
       </c>
       <c r="F1258">
-        <v>3.19636387519865E-06</v>
+        <v>3.196363875197783E-06</v>
       </c>
     </row>
     <row r="1259" spans="1:6">
@@ -26644,7 +26644,7 @@
         <v>295</v>
       </c>
       <c r="F1261">
-        <v>7.170608386103828E-05</v>
+        <v>7.170608386103741E-05</v>
       </c>
     </row>
     <row r="1262" spans="1:6">
@@ -26664,7 +26664,7 @@
         <v>296</v>
       </c>
       <c r="F1262">
-        <v>-0.0001886649487385702</v>
+        <v>-0.0001886649487385693</v>
       </c>
     </row>
     <row r="1263" spans="1:6">
@@ -26704,7 +26704,7 @@
         <v>298</v>
       </c>
       <c r="F1264">
-        <v>4.900175730841727E-06</v>
+        <v>4.90017573084086E-06</v>
       </c>
     </row>
     <row r="1265" spans="1:6">
@@ -32484,7 +32484,7 @@
         <v>166</v>
       </c>
       <c r="F1553">
-        <v>-0.0003722688546538844</v>
+        <v>-0.0003722688546538861</v>
       </c>
     </row>
     <row r="1554" spans="1:6">
@@ -32704,7 +32704,7 @@
         <v>177</v>
       </c>
       <c r="F1564">
-        <v>-5.094442093084295E-05</v>
+        <v>-5.094442093084121E-05</v>
       </c>
     </row>
     <row r="1565" spans="1:6">
@@ -32724,7 +32724,7 @@
         <v>178</v>
       </c>
       <c r="F1565">
-        <v>-9.52569353951209E-05</v>
+        <v>-9.525693539512263E-05</v>
       </c>
     </row>
     <row r="1566" spans="1:6">
@@ -32944,7 +32944,7 @@
         <v>189</v>
       </c>
       <c r="F1576">
-        <v>0.0004432532115426525</v>
+        <v>0.0004432532115426517</v>
       </c>
     </row>
     <row r="1577" spans="1:6">
@@ -33024,7 +33024,7 @@
         <v>193</v>
       </c>
       <c r="F1580">
-        <v>0.0008483699053646069</v>
+        <v>0.0008483699053646061</v>
       </c>
     </row>
     <row r="1581" spans="1:6">
@@ -33184,7 +33184,7 @@
         <v>201</v>
       </c>
       <c r="F1588">
-        <v>0.0006424599402661685</v>
+        <v>0.0006424599402661667</v>
       </c>
     </row>
     <row r="1589" spans="1:6">
@@ -33324,7 +33324,7 @@
         <v>208</v>
       </c>
       <c r="F1595">
-        <v>-5.363843942104984E-06</v>
+        <v>-5.363843942106719E-06</v>
       </c>
     </row>
     <row r="1596" spans="1:6">
@@ -33344,7 +33344,7 @@
         <v>209</v>
       </c>
       <c r="F1596">
-        <v>-1.43866192884208E-05</v>
+        <v>-1.438661928842254E-05</v>
       </c>
     </row>
     <row r="1597" spans="1:6">
@@ -33504,7 +33504,7 @@
         <v>217</v>
       </c>
       <c r="F1604">
-        <v>5.464751982521554E-05</v>
+        <v>5.464751982521381E-05</v>
       </c>
     </row>
     <row r="1605" spans="1:6">
@@ -33524,7 +33524,7 @@
         <v>218</v>
       </c>
       <c r="F1605">
-        <v>-1.559564359808821E-06</v>
+        <v>-1.559564359810556E-06</v>
       </c>
     </row>
     <row r="1606" spans="1:6">
@@ -33564,7 +33564,7 @@
         <v>220</v>
       </c>
       <c r="F1607">
-        <v>0.0001460332384837244</v>
+        <v>0.0001460332384837226</v>
       </c>
     </row>
     <row r="1608" spans="1:6">
@@ -33744,7 +33744,7 @@
         <v>229</v>
       </c>
       <c r="F1616">
-        <v>3.052600330622109E-05</v>
+        <v>3.052600330621935E-05</v>
       </c>
     </row>
     <row r="1617" spans="1:6">
@@ -33804,7 +33804,7 @@
         <v>232</v>
       </c>
       <c r="F1619">
-        <v>1.271486253101237E-05</v>
+        <v>1.271486253101063E-05</v>
       </c>
     </row>
     <row r="1620" spans="1:6">
@@ -34144,7 +34144,7 @@
         <v>249</v>
       </c>
       <c r="F1636">
-        <v>-2.237998792379084E-06</v>
+        <v>-2.237998792377349E-06</v>
       </c>
     </row>
     <row r="1637" spans="1:6">
@@ -34204,7 +34204,7 @@
         <v>252</v>
       </c>
       <c r="F1639">
-        <v>-5.346845488750016E-06</v>
+        <v>-5.346845488748281E-06</v>
       </c>
     </row>
     <row r="1640" spans="1:6">
@@ -34304,7 +34304,7 @@
         <v>257</v>
       </c>
       <c r="F1644">
-        <v>8.739885394900421E-07</v>
+        <v>8.739885394917768E-07</v>
       </c>
     </row>
     <row r="1645" spans="1:6">
@@ -34424,7 +34424,7 @@
         <v>263</v>
       </c>
       <c r="F1650">
-        <v>1.866717634586672E-05</v>
+        <v>1.866717634586498E-05</v>
       </c>
     </row>
     <row r="1651" spans="1:6">
@@ -34464,7 +34464,7 @@
         <v>265</v>
       </c>
       <c r="F1652">
-        <v>-5.046989263568849E-05</v>
+        <v>-5.046989263568676E-05</v>
       </c>
     </row>
     <row r="1653" spans="1:6">
@@ -34564,7 +34564,7 @@
         <v>270</v>
       </c>
       <c r="F1657">
-        <v>0.0005691593037666018</v>
+        <v>0.0005691593037666009</v>
       </c>
     </row>
     <row r="1658" spans="1:6">
@@ -34664,7 +34664,7 @@
         <v>275</v>
       </c>
       <c r="F1662">
-        <v>3.132898953265434E-07</v>
+        <v>3.132898953282781E-07</v>
       </c>
     </row>
     <row r="1663" spans="1:6">
@@ -34764,7 +34764,7 @@
         <v>280</v>
       </c>
       <c r="F1667">
-        <v>2.690756956311505E-06</v>
+        <v>2.69075695630977E-06</v>
       </c>
     </row>
     <row r="1668" spans="1:6">
@@ -34844,7 +34844,7 @@
         <v>284</v>
       </c>
       <c r="F1671">
-        <v>0.0004359754942978725</v>
+        <v>0.0004359754942978716</v>
       </c>
     </row>
     <row r="1672" spans="1:6">
@@ -34884,7 +34884,7 @@
         <v>286</v>
       </c>
       <c r="F1673">
-        <v>-6.345792042994694E-05</v>
+        <v>-6.345792042994521E-05</v>
       </c>
     </row>
     <row r="1674" spans="1:6">
@@ -35064,7 +35064,7 @@
         <v>295</v>
       </c>
       <c r="F1682">
-        <v>0.0001014152652928212</v>
+        <v>0.0001014152652928195</v>
       </c>
     </row>
     <row r="1683" spans="1:6">
@@ -35684,7 +35684,7 @@
         <v>300</v>
       </c>
       <c r="F1713">
-        <v>-3.133134381084167E-06</v>
+        <v>-3.133134381085034E-06</v>
       </c>
     </row>
     <row r="1714" spans="1:6">
@@ -35704,7 +35704,7 @@
         <v>301</v>
       </c>
       <c r="F1714">
-        <v>2.215129196016588E-07</v>
+        <v>2.215129196025262E-07</v>
       </c>
     </row>
     <row r="1715" spans="1:6">
@@ -35744,7 +35744,7 @@
         <v>303</v>
       </c>
       <c r="F1716">
-        <v>0.0007045594101953425</v>
+        <v>0.0007045594101953434</v>
       </c>
     </row>
     <row r="1717" spans="1:6">
@@ -35784,7 +35784,7 @@
         <v>305</v>
       </c>
       <c r="F1718">
-        <v>0.0003088386517377875</v>
+        <v>0.0003088386517377884</v>
       </c>
     </row>
     <row r="1719" spans="1:6">
@@ -35804,7 +35804,7 @@
         <v>306</v>
       </c>
       <c r="F1719">
-        <v>6.764632362877502E-05</v>
+        <v>6.764632362877415E-05</v>
       </c>
     </row>
     <row r="1720" spans="1:6">
@@ -36244,7 +36244,7 @@
         <v>300</v>
       </c>
       <c r="F1741">
-        <v>-4.431250981038956E-06</v>
+        <v>-4.431250981040691E-06</v>
       </c>
     </row>
     <row r="1742" spans="1:6">
@@ -36264,7 +36264,7 @@
         <v>301</v>
       </c>
       <c r="F1742">
-        <v>3.132898953265434E-07</v>
+        <v>3.132898953282781E-07</v>
       </c>
     </row>
     <row r="1743" spans="1:6">
@@ -36304,7 +36304,7 @@
         <v>303</v>
       </c>
       <c r="F1744">
-        <v>0.0009964716472034068</v>
+        <v>0.0009964716472034094</v>
       </c>
     </row>
     <row r="1745" spans="1:6">
@@ -36344,7 +36344,7 @@
         <v>305</v>
       </c>
       <c r="F1746">
-        <v>0.0004367963234383713</v>
+        <v>0.0004367963234383722</v>
       </c>
     </row>
     <row r="1747" spans="1:6">
@@ -36364,7 +36364,7 @@
         <v>306</v>
       </c>
       <c r="F1747">
-        <v>9.567346991353268E-05</v>
+        <v>9.567346991353094E-05</v>
       </c>
     </row>
     <row r="1748" spans="1:6">
@@ -37804,7 +37804,7 @@
         <v>309</v>
       </c>
       <c r="F1819">
-        <v>0.0006678821760334377</v>
+        <v>0.0006678821760334385</v>
       </c>
     </row>
     <row r="1820" spans="1:6">
@@ -37864,7 +37864,7 @@
         <v>312</v>
       </c>
       <c r="F1822">
-        <v>8.278960359570965E-06</v>
+        <v>8.278960359570098E-06</v>
       </c>
     </row>
     <row r="1823" spans="1:6">
@@ -37904,7 +37904,7 @@
         <v>300</v>
       </c>
       <c r="F1824">
-        <v>-3.133134381084167E-06</v>
+        <v>-3.133134381085034E-06</v>
       </c>
     </row>
     <row r="1825" spans="1:6">
@@ -37924,7 +37924,7 @@
         <v>314</v>
       </c>
       <c r="F1825">
-        <v>-0.00013087970622957</v>
+        <v>-0.0001308797062295692</v>
       </c>
     </row>
     <row r="1826" spans="1:6">
@@ -37944,7 +37944,7 @@
         <v>315</v>
       </c>
       <c r="F1826">
-        <v>-1.438117898756169E-06</v>
+        <v>-1.438117898757037E-06</v>
       </c>
     </row>
     <row r="1827" spans="1:6">
@@ -37984,7 +37984,7 @@
         <v>317</v>
       </c>
       <c r="F1828">
-        <v>0.000130389381282384</v>
+        <v>0.0001303893812823831</v>
       </c>
     </row>
     <row r="1829" spans="1:6">
@@ -38044,7 +38044,7 @@
         <v>320</v>
       </c>
       <c r="F1831">
-        <v>2.215129196016588E-07</v>
+        <v>2.215129196025262E-07</v>
       </c>
     </row>
     <row r="1832" spans="1:6">
@@ -38084,7 +38084,7 @@
         <v>322</v>
       </c>
       <c r="F1833">
-        <v>3.732262887659078E-05</v>
+        <v>3.732262887658992E-05</v>
       </c>
     </row>
     <row r="1834" spans="1:6">
@@ -38104,7 +38104,7 @@
         <v>323</v>
       </c>
       <c r="F1834">
-        <v>0.000163392662153582</v>
+        <v>0.0001633926621535829</v>
       </c>
     </row>
     <row r="1835" spans="1:6">
@@ -38324,7 +38324,7 @@
         <v>333</v>
       </c>
       <c r="F1845">
-        <v>0.0004542539648352559</v>
+        <v>0.000454253964835255</v>
       </c>
     </row>
     <row r="1846" spans="1:6">
@@ -38344,7 +38344,7 @@
         <v>334</v>
       </c>
       <c r="F1846">
-        <v>1.554962044642699E-05</v>
+        <v>1.554962044642786E-05</v>
       </c>
     </row>
     <row r="1847" spans="1:6">
@@ -38404,7 +38404,7 @@
         <v>336</v>
       </c>
       <c r="F1849">
-        <v>0.0001116497417350459</v>
+        <v>0.000111649741735045</v>
       </c>
     </row>
     <row r="1850" spans="1:6">
@@ -39864,7 +39864,7 @@
         <v>309</v>
       </c>
       <c r="F1922">
-        <v>0.0009445983439569918</v>
+        <v>0.0009445983439569936</v>
       </c>
     </row>
     <row r="1923" spans="1:6">
@@ -39964,7 +39964,7 @@
         <v>300</v>
       </c>
       <c r="F1927">
-        <v>-4.431250981038956E-06</v>
+        <v>-4.431250981040691E-06</v>
       </c>
     </row>
     <row r="1928" spans="1:6">
@@ -39984,7 +39984,7 @@
         <v>314</v>
       </c>
       <c r="F1928">
-        <v>-0.0001851056341947363</v>
+        <v>-0.0001851056341947346</v>
       </c>
     </row>
     <row r="1929" spans="1:6">
@@ -40004,7 +40004,7 @@
         <v>315</v>
       </c>
       <c r="F1929">
-        <v>-2.033957237260187E-06</v>
+        <v>-2.033957237261921E-06</v>
       </c>
     </row>
     <row r="1930" spans="1:6">
@@ -40104,7 +40104,7 @@
         <v>320</v>
       </c>
       <c r="F1934">
-        <v>3.132898953265434E-07</v>
+        <v>3.132898953282781E-07</v>
       </c>
     </row>
     <row r="1935" spans="1:6">
@@ -40144,7 +40144,7 @@
         <v>322</v>
       </c>
       <c r="F1936">
-        <v>5.278609715014121E-05</v>
+        <v>5.278609715013947E-05</v>
       </c>
     </row>
     <row r="1937" spans="1:6">
@@ -40164,7 +40164,7 @@
         <v>323</v>
       </c>
       <c r="F1937">
-        <v>0.0002310893202774594</v>
+        <v>0.0002310893202774611</v>
       </c>
     </row>
     <row r="1938" spans="1:6">
@@ -40184,7 +40184,7 @@
         <v>324</v>
       </c>
       <c r="F1938">
-        <v>0.0002345711550878222</v>
+        <v>0.0002345711550878239</v>
       </c>
     </row>
     <row r="1939" spans="1:6">
@@ -40384,7 +40384,7 @@
         <v>333</v>
       </c>
       <c r="F1948">
-        <v>0.0006424599402661685</v>
+        <v>0.0006424599402661667</v>
       </c>
     </row>
     <row r="1949" spans="1:6">
@@ -40404,7 +40404,7 @@
         <v>334</v>
       </c>
       <c r="F1949">
-        <v>2.199212114041907E-05</v>
+        <v>2.19921211404208E-05</v>
       </c>
     </row>
     <row r="1950" spans="1:6">
@@ -40824,7 +40824,7 @@
         <v>343</v>
       </c>
       <c r="F1970">
-        <v>0.0001032534068217258</v>
+        <v>0.0001032534068217249</v>
       </c>
     </row>
     <row r="1971" spans="1:6">
@@ -41144,7 +41144,7 @@
         <v>343</v>
       </c>
       <c r="F1986">
-        <v>0.0001460332384837244</v>
+        <v>0.0001460332384837226</v>
       </c>
     </row>
     <row r="1987" spans="1:6">
@@ -41384,7 +41384,7 @@
         <v>346</v>
       </c>
       <c r="F1998">
-        <v>-7.863054004234819E-05</v>
+        <v>-7.863054004234732E-05</v>
       </c>
     </row>
     <row r="1999" spans="1:6">
